--- a/grade_diff_report.xlsx
+++ b/grade_diff_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="506">
   <si>
     <t>Data</t>
   </si>
@@ -710,6 +710,441 @@
     <t>frente a frente - sao jose do rio preto</t>
   </si>
   <si>
+    <t>0_00:00</t>
+  </si>
+  <si>
+    <t>0_01:00</t>
+  </si>
+  <si>
+    <t>0_01:45</t>
+  </si>
+  <si>
+    <t>0_01:50</t>
+  </si>
+  <si>
+    <t>0_02:45</t>
+  </si>
+  <si>
+    <t>0_03:50</t>
+  </si>
+  <si>
+    <t>0_06:00</t>
+  </si>
+  <si>
+    <t>0_06:25</t>
+  </si>
+  <si>
+    <t>0_06:30</t>
+  </si>
+  <si>
+    <t>0_06:45</t>
+  </si>
+  <si>
+    <t>0_06:50</t>
+  </si>
+  <si>
+    <t>0_07:00</t>
+  </si>
+  <si>
+    <t>0_08:00</t>
+  </si>
+  <si>
+    <t>0_08:30</t>
+  </si>
+  <si>
+    <t>0_09:00</t>
+  </si>
+  <si>
+    <t>0_10:00</t>
+  </si>
+  <si>
+    <t>0_10:30</t>
+  </si>
+  <si>
+    <t>0_11:00</t>
+  </si>
+  <si>
+    <t>0_11:30</t>
+  </si>
+  <si>
+    <t>0_12:00</t>
+  </si>
+  <si>
+    <t>0_12:30</t>
+  </si>
+  <si>
+    <t>0_13:00</t>
+  </si>
+  <si>
+    <t>0_13:30</t>
+  </si>
+  <si>
+    <t>0_15:00</t>
+  </si>
+  <si>
+    <t>0_16:30</t>
+  </si>
+  <si>
+    <t>0_16:50</t>
+  </si>
+  <si>
+    <t>0_17:00</t>
+  </si>
+  <si>
+    <t>0_17:30</t>
+  </si>
+  <si>
+    <t>0_19:00</t>
+  </si>
+  <si>
+    <t>0_20:00</t>
+  </si>
+  <si>
+    <t>0_21:00</t>
+  </si>
+  <si>
+    <t>0_21:30</t>
+  </si>
+  <si>
+    <t>0_23:00</t>
+  </si>
+  <si>
+    <t>1_00:00</t>
+  </si>
+  <si>
+    <t>2_01:00</t>
+  </si>
+  <si>
+    <t>2_02:00</t>
+  </si>
+  <si>
+    <t>2_02:45</t>
+  </si>
+  <si>
+    <t>2_03:10</t>
+  </si>
+  <si>
+    <t>2_03:15</t>
+  </si>
+  <si>
+    <t>2_03:45</t>
+  </si>
+  <si>
+    <t>2_04:45</t>
+  </si>
+  <si>
+    <t>2_05:30</t>
+  </si>
+  <si>
+    <t>2_05:35</t>
+  </si>
+  <si>
+    <t>2_06:00</t>
+  </si>
+  <si>
+    <t>2_06:10</t>
+  </si>
+  <si>
+    <t>2_06:25</t>
+  </si>
+  <si>
+    <t>2_06:30</t>
+  </si>
+  <si>
+    <t>2_07:00</t>
+  </si>
+  <si>
+    <t>2_07:15</t>
+  </si>
+  <si>
+    <t>2_07:30</t>
+  </si>
+  <si>
+    <t>2_08:00</t>
+  </si>
+  <si>
+    <t>2_09:00</t>
+  </si>
+  <si>
+    <t>2_09:30</t>
+  </si>
+  <si>
+    <t>2_11:00</t>
+  </si>
+  <si>
+    <t>2_12:00</t>
+  </si>
+  <si>
+    <t>2_12:30</t>
+  </si>
+  <si>
+    <t>2_13:00</t>
+  </si>
+  <si>
+    <t>2_14:30</t>
+  </si>
+  <si>
+    <t>2_16:40</t>
+  </si>
+  <si>
+    <t>2_16:50</t>
+  </si>
+  <si>
+    <t>2_17:00</t>
+  </si>
+  <si>
+    <t>2_17:30</t>
+  </si>
+  <si>
+    <t>2_18:45</t>
+  </si>
+  <si>
+    <t>2_19:00</t>
+  </si>
+  <si>
+    <t>2_20:30</t>
+  </si>
+  <si>
+    <t>2_21:00</t>
+  </si>
+  <si>
+    <t>2_21:30</t>
+  </si>
+  <si>
+    <t>2_22:00</t>
+  </si>
+  <si>
+    <t>2_22:30</t>
+  </si>
+  <si>
+    <t>2_23:30</t>
+  </si>
+  <si>
+    <t>2_23:55</t>
+  </si>
+  <si>
+    <t>3_00:00</t>
+  </si>
+  <si>
+    <t>3_01:00</t>
+  </si>
+  <si>
+    <t>3_01:45</t>
+  </si>
+  <si>
+    <t>3_01:50</t>
+  </si>
+  <si>
+    <t>3_02:45</t>
+  </si>
+  <si>
+    <t>3_03:50</t>
+  </si>
+  <si>
+    <t>3_06:25</t>
+  </si>
+  <si>
+    <t>3_06:30</t>
+  </si>
+  <si>
+    <t>3_06:45</t>
+  </si>
+  <si>
+    <t>3_06:55</t>
+  </si>
+  <si>
+    <t>3_07:45</t>
+  </si>
+  <si>
+    <t>3_08:00</t>
+  </si>
+  <si>
+    <t>3_08:25</t>
+  </si>
+  <si>
+    <t>3_08:30</t>
+  </si>
+  <si>
+    <t>3_09:00</t>
+  </si>
+  <si>
+    <t>3_10:00</t>
+  </si>
+  <si>
+    <t>3_10:30</t>
+  </si>
+  <si>
+    <t>3_11:00</t>
+  </si>
+  <si>
+    <t>3_12:00</t>
+  </si>
+  <si>
+    <t>3_12:30</t>
+  </si>
+  <si>
+    <t>3_14:30</t>
+  </si>
+  <si>
+    <t>3_15:00</t>
+  </si>
+  <si>
+    <t>3_15:10</t>
+  </si>
+  <si>
+    <t>3_16:15</t>
+  </si>
+  <si>
+    <t>3_17:00</t>
+  </si>
+  <si>
+    <t>3_17:30</t>
+  </si>
+  <si>
+    <t>3_17:45</t>
+  </si>
+  <si>
+    <t>3_18:00</t>
+  </si>
+  <si>
+    <t>3_18:30</t>
+  </si>
+  <si>
+    <t>3_18:55</t>
+  </si>
+  <si>
+    <t>3_19:00</t>
+  </si>
+  <si>
+    <t>3_19:55</t>
+  </si>
+  <si>
+    <t>3_20:00</t>
+  </si>
+  <si>
+    <t>3_20:30</t>
+  </si>
+  <si>
+    <t>3_22:30</t>
+  </si>
+  <si>
+    <t>3_23:30</t>
+  </si>
+  <si>
+    <t>4_00:00</t>
+  </si>
+  <si>
+    <t>4_01:00</t>
+  </si>
+  <si>
+    <t>4_01:45</t>
+  </si>
+  <si>
+    <t>4_01:50</t>
+  </si>
+  <si>
+    <t>4_02:45</t>
+  </si>
+  <si>
+    <t>4_03:50</t>
+  </si>
+  <si>
+    <t>4_06:00</t>
+  </si>
+  <si>
+    <t>4_06:25</t>
+  </si>
+  <si>
+    <t>4_06:30</t>
+  </si>
+  <si>
+    <t>4_06:45</t>
+  </si>
+  <si>
+    <t>4_06:55</t>
+  </si>
+  <si>
+    <t>4_07:45</t>
+  </si>
+  <si>
+    <t>4_08:00</t>
+  </si>
+  <si>
+    <t>4_08:25</t>
+  </si>
+  <si>
+    <t>4_08:30</t>
+  </si>
+  <si>
+    <t>4_09:00</t>
+  </si>
+  <si>
+    <t>4_10:00</t>
+  </si>
+  <si>
+    <t>4_10:30</t>
+  </si>
+  <si>
+    <t>4_11:00</t>
+  </si>
+  <si>
+    <t>4_12:00</t>
+  </si>
+  <si>
+    <t>4_12:30</t>
+  </si>
+  <si>
+    <t>4_14:30</t>
+  </si>
+  <si>
+    <t>4_15:00</t>
+  </si>
+  <si>
+    <t>4_15:10</t>
+  </si>
+  <si>
+    <t>4_16:15</t>
+  </si>
+  <si>
+    <t>4_17:00</t>
+  </si>
+  <si>
+    <t>4_17:30</t>
+  </si>
+  <si>
+    <t>4_17:45</t>
+  </si>
+  <si>
+    <t>4_18:00</t>
+  </si>
+  <si>
+    <t>4_18:30</t>
+  </si>
+  <si>
+    <t>4_18:55</t>
+  </si>
+  <si>
+    <t>4_19:00</t>
+  </si>
+  <si>
+    <t>4_19:55</t>
+  </si>
+  <si>
+    <t>4_20:00</t>
+  </si>
+  <si>
+    <t>4_20:30</t>
+  </si>
+  <si>
+    <t>4_23:00</t>
+  </si>
+  <si>
+    <t>4_23:25</t>
+  </si>
+  <si>
+    <t>4_23:30</t>
+  </si>
+  <si>
     <t>5_00:00</t>
   </si>
   <si>
@@ -740,15 +1175,15 @@
     <t>5_06:45</t>
   </si>
   <si>
-    <t>5_06:50</t>
-  </si>
-  <si>
-    <t>5_07:00</t>
+    <t>5_06:55</t>
   </si>
   <si>
     <t>5_08:00</t>
   </si>
   <si>
+    <t>5_08:25</t>
+  </si>
+  <si>
     <t>5_08:30</t>
   </si>
   <si>
@@ -764,28 +1199,22 @@
     <t>5_11:00</t>
   </si>
   <si>
-    <t>5_11:30</t>
-  </si>
-  <si>
     <t>5_12:00</t>
   </si>
   <si>
     <t>5_12:30</t>
   </si>
   <si>
-    <t>5_13:00</t>
-  </si>
-  <si>
-    <t>5_13:30</t>
+    <t>5_14:30</t>
   </si>
   <si>
     <t>5_15:00</t>
   </si>
   <si>
-    <t>5_16:30</t>
-  </si>
-  <si>
-    <t>5_16:50</t>
+    <t>5_15:10</t>
+  </si>
+  <si>
+    <t>5_16:15</t>
   </si>
   <si>
     <t>5_17:00</t>
@@ -794,307 +1223,40 @@
     <t>5_17:30</t>
   </si>
   <si>
+    <t>5_17:45</t>
+  </si>
+  <si>
+    <t>5_18:00</t>
+  </si>
+  <si>
+    <t>5_18:30</t>
+  </si>
+  <si>
+    <t>5_18:55</t>
+  </si>
+  <si>
     <t>5_19:00</t>
   </si>
   <si>
+    <t>5_19:55</t>
+  </si>
+  <si>
     <t>5_20:00</t>
   </si>
   <si>
-    <t>5_21:00</t>
-  </si>
-  <si>
-    <t>5_21:30</t>
+    <t>5_20:30</t>
+  </si>
+  <si>
+    <t>5_22:00</t>
   </si>
   <si>
     <t>5_23:00</t>
   </si>
   <si>
-    <t>ERR_NaT_00:00</t>
-  </si>
-  <si>
-    <t>1_01:00</t>
-  </si>
-  <si>
-    <t>1_02:00</t>
-  </si>
-  <si>
-    <t>1_02:45</t>
-  </si>
-  <si>
-    <t>1_03:10</t>
-  </si>
-  <si>
-    <t>1_03:15</t>
-  </si>
-  <si>
-    <t>1_03:45</t>
-  </si>
-  <si>
-    <t>1_04:45</t>
-  </si>
-  <si>
-    <t>1_05:30</t>
-  </si>
-  <si>
-    <t>1_05:35</t>
-  </si>
-  <si>
-    <t>1_06:00</t>
-  </si>
-  <si>
-    <t>1_06:10</t>
-  </si>
-  <si>
-    <t>1_06:25</t>
-  </si>
-  <si>
-    <t>1_06:30</t>
-  </si>
-  <si>
-    <t>1_07:00</t>
-  </si>
-  <si>
-    <t>1_07:15</t>
-  </si>
-  <si>
-    <t>1_07:30</t>
-  </si>
-  <si>
-    <t>1_08:00</t>
-  </si>
-  <si>
-    <t>1_09:00</t>
-  </si>
-  <si>
-    <t>1_09:30</t>
-  </si>
-  <si>
-    <t>1_11:00</t>
-  </si>
-  <si>
-    <t>1_12:00</t>
-  </si>
-  <si>
-    <t>1_12:30</t>
-  </si>
-  <si>
-    <t>1_13:00</t>
-  </si>
-  <si>
-    <t>1_14:30</t>
-  </si>
-  <si>
-    <t>1_16:40</t>
-  </si>
-  <si>
-    <t>1_16:50</t>
-  </si>
-  <si>
-    <t>1_17:00</t>
-  </si>
-  <si>
-    <t>1_17:30</t>
-  </si>
-  <si>
-    <t>1_18:45</t>
-  </si>
-  <si>
-    <t>1_19:00</t>
-  </si>
-  <si>
-    <t>1_20:30</t>
-  </si>
-  <si>
-    <t>1_21:00</t>
-  </si>
-  <si>
-    <t>1_21:30</t>
-  </si>
-  <si>
-    <t>1_22:00</t>
-  </si>
-  <si>
-    <t>1_22:30</t>
-  </si>
-  <si>
-    <t>1_23:30</t>
-  </si>
-  <si>
-    <t>1_23:55</t>
-  </si>
-  <si>
-    <t>1_00:00</t>
-  </si>
-  <si>
-    <t>1_01:45</t>
-  </si>
-  <si>
-    <t>1_01:50</t>
-  </si>
-  <si>
-    <t>1_03:50</t>
-  </si>
-  <si>
-    <t>1_06:45</t>
-  </si>
-  <si>
-    <t>1_06:55</t>
-  </si>
-  <si>
-    <t>1_07:45</t>
-  </si>
-  <si>
-    <t>1_08:25</t>
-  </si>
-  <si>
-    <t>1_08:30</t>
-  </si>
-  <si>
-    <t>1_10:00</t>
-  </si>
-  <si>
-    <t>1_10:30</t>
-  </si>
-  <si>
-    <t>1_15:00</t>
-  </si>
-  <si>
-    <t>1_15:10</t>
-  </si>
-  <si>
-    <t>1_16:15</t>
-  </si>
-  <si>
-    <t>1_17:45</t>
-  </si>
-  <si>
-    <t>1_18:00</t>
-  </si>
-  <si>
-    <t>1_18:30</t>
-  </si>
-  <si>
-    <t>1_18:55</t>
-  </si>
-  <si>
-    <t>1_19:55</t>
-  </si>
-  <si>
-    <t>1_20:00</t>
-  </si>
-  <si>
-    <t>4_00:00</t>
-  </si>
-  <si>
-    <t>4_01:00</t>
-  </si>
-  <si>
-    <t>4_01:45</t>
-  </si>
-  <si>
-    <t>4_01:50</t>
-  </si>
-  <si>
-    <t>4_02:45</t>
-  </si>
-  <si>
-    <t>4_03:50</t>
-  </si>
-  <si>
-    <t>4_06:00</t>
-  </si>
-  <si>
-    <t>4_06:25</t>
-  </si>
-  <si>
-    <t>4_06:30</t>
-  </si>
-  <si>
-    <t>4_06:45</t>
-  </si>
-  <si>
-    <t>4_06:55</t>
-  </si>
-  <si>
-    <t>4_07:45</t>
-  </si>
-  <si>
-    <t>4_08:00</t>
-  </si>
-  <si>
-    <t>4_08:25</t>
-  </si>
-  <si>
-    <t>4_08:30</t>
-  </si>
-  <si>
-    <t>4_09:00</t>
-  </si>
-  <si>
-    <t>4_10:00</t>
-  </si>
-  <si>
-    <t>4_10:30</t>
-  </si>
-  <si>
-    <t>4_11:00</t>
-  </si>
-  <si>
-    <t>4_12:00</t>
-  </si>
-  <si>
-    <t>4_12:30</t>
-  </si>
-  <si>
-    <t>4_14:30</t>
-  </si>
-  <si>
-    <t>4_15:00</t>
-  </si>
-  <si>
-    <t>4_15:10</t>
-  </si>
-  <si>
-    <t>4_16:15</t>
-  </si>
-  <si>
-    <t>4_17:00</t>
-  </si>
-  <si>
-    <t>4_17:30</t>
-  </si>
-  <si>
-    <t>4_17:45</t>
-  </si>
-  <si>
-    <t>4_18:00</t>
-  </si>
-  <si>
-    <t>4_18:30</t>
-  </si>
-  <si>
-    <t>4_18:55</t>
-  </si>
-  <si>
-    <t>4_19:00</t>
-  </si>
-  <si>
-    <t>4_19:55</t>
-  </si>
-  <si>
-    <t>4_20:00</t>
-  </si>
-  <si>
-    <t>4_20:30</t>
-  </si>
-  <si>
-    <t>4_23:00</t>
-  </si>
-  <si>
-    <t>4_23:25</t>
-  </si>
-  <si>
-    <t>4_23:30</t>
+    <t>5_23:25</t>
+  </si>
+  <si>
+    <t>5_23:30</t>
   </si>
   <si>
     <t>6_00:00</t>
@@ -1142,10 +1304,13 @@
     <t>6_09:00</t>
   </si>
   <si>
-    <t>6_10:00</t>
-  </si>
-  <si>
-    <t>6_10:30</t>
+    <t>6_09:45</t>
+  </si>
+  <si>
+    <t>6_10:15</t>
+  </si>
+  <si>
+    <t>6_10:45</t>
   </si>
   <si>
     <t>6_11:00</t>
@@ -1211,124 +1376,115 @@
     <t>6_23:30</t>
   </si>
   <si>
-    <t>2_00:00</t>
-  </si>
-  <si>
-    <t>2_01:00</t>
-  </si>
-  <si>
-    <t>2_01:45</t>
-  </si>
-  <si>
-    <t>2_01:50</t>
-  </si>
-  <si>
-    <t>2_02:45</t>
-  </si>
-  <si>
-    <t>2_03:50</t>
-  </si>
-  <si>
-    <t>2_06:00</t>
-  </si>
-  <si>
-    <t>2_06:25</t>
-  </si>
-  <si>
-    <t>2_06:30</t>
-  </si>
-  <si>
-    <t>2_06:45</t>
-  </si>
-  <si>
-    <t>2_06:55</t>
-  </si>
-  <si>
-    <t>2_08:00</t>
-  </si>
-  <si>
-    <t>2_08:25</t>
-  </si>
-  <si>
-    <t>2_08:30</t>
-  </si>
-  <si>
-    <t>2_09:00</t>
-  </si>
-  <si>
-    <t>2_09:45</t>
-  </si>
-  <si>
-    <t>2_10:15</t>
-  </si>
-  <si>
-    <t>2_10:45</t>
-  </si>
-  <si>
-    <t>2_11:00</t>
-  </si>
-  <si>
-    <t>2_12:00</t>
-  </si>
-  <si>
-    <t>2_12:30</t>
-  </si>
-  <si>
-    <t>2_14:30</t>
-  </si>
-  <si>
-    <t>2_15:00</t>
-  </si>
-  <si>
-    <t>2_15:10</t>
-  </si>
-  <si>
-    <t>2_16:15</t>
-  </si>
-  <si>
-    <t>2_17:00</t>
-  </si>
-  <si>
-    <t>2_17:30</t>
-  </si>
-  <si>
-    <t>2_17:45</t>
-  </si>
-  <si>
-    <t>2_18:00</t>
-  </si>
-  <si>
-    <t>2_18:30</t>
-  </si>
-  <si>
-    <t>2_18:55</t>
-  </si>
-  <si>
-    <t>2_19:00</t>
-  </si>
-  <si>
-    <t>2_19:55</t>
-  </si>
-  <si>
-    <t>2_20:00</t>
-  </si>
-  <si>
-    <t>2_20:30</t>
-  </si>
-  <si>
-    <t>2_22:00</t>
-  </si>
-  <si>
-    <t>2_23:00</t>
-  </si>
-  <si>
-    <t>2_23:25</t>
-  </si>
-  <si>
-    <t>2_23:30</t>
-  </si>
-  <si>
-    <t>4_22:00</t>
+    <t>7_00:00</t>
+  </si>
+  <si>
+    <t>7_01:00</t>
+  </si>
+  <si>
+    <t>7_01:45</t>
+  </si>
+  <si>
+    <t>7_01:50</t>
+  </si>
+  <si>
+    <t>7_02:45</t>
+  </si>
+  <si>
+    <t>7_03:50</t>
+  </si>
+  <si>
+    <t>7_06:00</t>
+  </si>
+  <si>
+    <t>7_06:25</t>
+  </si>
+  <si>
+    <t>7_06:30</t>
+  </si>
+  <si>
+    <t>7_06:55</t>
+  </si>
+  <si>
+    <t>7_08:00</t>
+  </si>
+  <si>
+    <t>7_08:25</t>
+  </si>
+  <si>
+    <t>7_08:30</t>
+  </si>
+  <si>
+    <t>7_09:00</t>
+  </si>
+  <si>
+    <t>7_10:00</t>
+  </si>
+  <si>
+    <t>7_10:30</t>
+  </si>
+  <si>
+    <t>7_11:00</t>
+  </si>
+  <si>
+    <t>7_12:00</t>
+  </si>
+  <si>
+    <t>7_12:30</t>
+  </si>
+  <si>
+    <t>7_14:30</t>
+  </si>
+  <si>
+    <t>7_15:00</t>
+  </si>
+  <si>
+    <t>7_15:10</t>
+  </si>
+  <si>
+    <t>7_16:15</t>
+  </si>
+  <si>
+    <t>7_17:00</t>
+  </si>
+  <si>
+    <t>7_17:30</t>
+  </si>
+  <si>
+    <t>7_17:45</t>
+  </si>
+  <si>
+    <t>7_18:00</t>
+  </si>
+  <si>
+    <t>7_18:30</t>
+  </si>
+  <si>
+    <t>7_18:55</t>
+  </si>
+  <si>
+    <t>7_19:00</t>
+  </si>
+  <si>
+    <t>7_19:55</t>
+  </si>
+  <si>
+    <t>7_20:00</t>
+  </si>
+  <si>
+    <t>7_20:30</t>
+  </si>
+  <si>
+    <t>7_22:00</t>
+  </si>
+  <si>
+    <t>7_23:00</t>
+  </si>
+  <si>
+    <t>7_23:25</t>
+  </si>
+  <si>
+    <t>7_23:30</t>
   </si>
   <si>
     <t>conta comigo - dalcides</t>
@@ -1340,31 +1496,31 @@
     <t>o terco pai eterno</t>
   </si>
   <si>
-    <t>um sinal de paz dom villar</t>
+    <t>o santo terco do pai eterno</t>
+  </si>
+  <si>
+    <t>santa missa - direto da catedral da se /sp</t>
+  </si>
+  <si>
+    <t>vida a vida</t>
+  </si>
+  <si>
+    <t>redevida tamo junto</t>
+  </si>
+  <si>
+    <t>reflexoes de natal no santuario da vida</t>
   </si>
   <si>
     <t>a palavra do arcebispo - dom paulo mendes peixoto</t>
   </si>
   <si>
-    <t>reflexoes de natal no santuario da vida</t>
-  </si>
-  <si>
-    <t>o santo terco do pai eterno</t>
-  </si>
-  <si>
-    <t>santa missa - direto da catedral da se /sp</t>
-  </si>
-  <si>
-    <t>vida a vida</t>
-  </si>
-  <si>
-    <t>redevida tamo junto</t>
-  </si>
-  <si>
     <t>palavra do cardeal - dom orani joao tempesta</t>
   </si>
   <si>
     <t>frente a frente</t>
+  </si>
+  <si>
+    <t>santa missa - capela nossa senhora de fatima</t>
   </si>
   <si>
     <t>ALTERADO</t>
@@ -1780,10 +1936,10 @@
         <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1806,7 +1962,7 @@
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1826,10 +1982,10 @@
         <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G4" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1849,7 +2005,7 @@
         <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1869,7 +2025,7 @@
         <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1889,7 +2045,7 @@
         <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1909,10 +2065,10 @@
         <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G8" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1935,7 +2091,7 @@
         <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1955,10 +2111,10 @@
         <v>239</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1977,11 +2133,8 @@
       <c r="E11" t="s">
         <v>240</v>
       </c>
-      <c r="F11" t="s">
-        <v>441</v>
-      </c>
       <c r="G11" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2000,11 +2153,8 @@
       <c r="E12" t="s">
         <v>241</v>
       </c>
-      <c r="F12" t="s">
-        <v>165</v>
-      </c>
       <c r="G12" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2023,11 +2173,8 @@
       <c r="E13" t="s">
         <v>242</v>
       </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
       <c r="G13" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2047,10 +2194,10 @@
         <v>243</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2073,7 +2220,7 @@
         <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2093,10 +2240,10 @@
         <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2115,8 +2262,11 @@
       <c r="E17" t="s">
         <v>246</v>
       </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
       <c r="G17" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2136,10 +2286,10 @@
         <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2159,10 +2309,10 @@
         <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2181,11 +2331,8 @@
       <c r="E20" t="s">
         <v>249</v>
       </c>
-      <c r="F20" t="s">
-        <v>173</v>
-      </c>
       <c r="G20" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2208,7 +2355,7 @@
         <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2228,10 +2375,10 @@
         <v>251</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2250,11 +2397,8 @@
       <c r="E23" t="s">
         <v>252</v>
       </c>
-      <c r="F23" t="s">
-        <v>176</v>
-      </c>
       <c r="G23" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2273,11 +2417,8 @@
       <c r="E24" t="s">
         <v>253</v>
       </c>
-      <c r="F24" t="s">
-        <v>177</v>
-      </c>
       <c r="G24" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2297,10 +2438,10 @@
         <v>254</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2319,11 +2460,8 @@
       <c r="E26" t="s">
         <v>255</v>
       </c>
-      <c r="F26" t="s">
-        <v>179</v>
-      </c>
       <c r="G26" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2342,11 +2480,8 @@
       <c r="E27" t="s">
         <v>256</v>
       </c>
-      <c r="F27" t="s">
-        <v>180</v>
-      </c>
       <c r="G27" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2369,7 +2504,7 @@
         <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2389,10 +2524,10 @@
         <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2412,10 +2547,10 @@
         <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2435,10 +2570,10 @@
         <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>493</v>
       </c>
       <c r="G31" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2457,11 +2592,8 @@
       <c r="E32" t="s">
         <v>261</v>
       </c>
-      <c r="F32" t="s">
-        <v>175</v>
-      </c>
       <c r="G32" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2480,11 +2612,8 @@
       <c r="E33" t="s">
         <v>262</v>
       </c>
-      <c r="F33" t="s">
-        <v>184</v>
-      </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2504,10 +2633,10 @@
         <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2523,8 +2652,11 @@
       <c r="E35" t="s">
         <v>264</v>
       </c>
+      <c r="F35" t="s">
+        <v>186</v>
+      </c>
       <c r="G35" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2547,7 +2679,7 @@
         <v>157</v>
       </c>
       <c r="G36" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2567,7 +2699,7 @@
         <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2587,7 +2719,7 @@
         <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2610,7 +2742,7 @@
         <v>158</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2633,7 +2765,7 @@
         <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2653,10 +2785,10 @@
         <v>270</v>
       </c>
       <c r="F41" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G41" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2679,7 +2811,7 @@
         <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2698,8 +2830,11 @@
       <c r="E43" t="s">
         <v>272</v>
       </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
       <c r="G43" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2722,7 +2857,7 @@
         <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2742,10 +2877,10 @@
         <v>274</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G45" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2765,7 +2900,7 @@
         <v>275</v>
       </c>
       <c r="G46" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2788,7 +2923,7 @@
         <v>162</v>
       </c>
       <c r="G47" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2808,10 +2943,10 @@
         <v>277</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2830,8 +2965,11 @@
       <c r="E49" t="s">
         <v>278</v>
       </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
       <c r="G49" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2851,7 +2989,7 @@
         <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2871,7 +3009,7 @@
         <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2891,10 +3029,10 @@
         <v>281</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2914,10 +3052,10 @@
         <v>282</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="G53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2937,7 +3075,7 @@
         <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2957,10 +3095,10 @@
         <v>284</v>
       </c>
       <c r="F55" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="G55" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2983,7 +3121,7 @@
         <v>174</v>
       </c>
       <c r="G56" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3003,10 +3141,10 @@
         <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="G57" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3025,8 +3163,11 @@
       <c r="E58" t="s">
         <v>287</v>
       </c>
+      <c r="F58" t="s">
+        <v>176</v>
+      </c>
       <c r="G58" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3045,11 +3186,8 @@
       <c r="E59" t="s">
         <v>288</v>
       </c>
-      <c r="F59" t="s">
-        <v>209</v>
-      </c>
       <c r="G59" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3069,7 +3207,7 @@
         <v>289</v>
       </c>
       <c r="G60" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3088,8 +3226,11 @@
       <c r="E61" t="s">
         <v>290</v>
       </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
       <c r="G61" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3112,7 +3253,7 @@
         <v>175</v>
       </c>
       <c r="G62" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3132,10 +3273,10 @@
         <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G63" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3155,7 +3296,7 @@
         <v>293</v>
       </c>
       <c r="G64" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3175,10 +3316,10 @@
         <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="G65" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3197,11 +3338,8 @@
       <c r="E66" t="s">
         <v>295</v>
       </c>
-      <c r="F66" t="s">
-        <v>193</v>
-      </c>
       <c r="G66" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3220,8 +3358,11 @@
       <c r="E67" t="s">
         <v>296</v>
       </c>
+      <c r="F67" t="s">
+        <v>175</v>
+      </c>
       <c r="G67" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3240,8 +3381,11 @@
       <c r="E68" t="s">
         <v>297</v>
       </c>
+      <c r="F68" t="s">
+        <v>184</v>
+      </c>
       <c r="G68" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3261,7 +3405,7 @@
         <v>298</v>
       </c>
       <c r="G69" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3281,7 +3425,7 @@
         <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3300,11 +3444,8 @@
       <c r="E71" t="s">
         <v>300</v>
       </c>
-      <c r="F71" t="s">
-        <v>211</v>
-      </c>
       <c r="G71" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3324,7 +3465,7 @@
         <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3340,8 +3481,11 @@
       <c r="E73" t="s">
         <v>264</v>
       </c>
+      <c r="F73" t="s">
+        <v>186</v>
+      </c>
       <c r="G73" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3360,11 +3504,8 @@
       <c r="E74" t="s">
         <v>302</v>
       </c>
-      <c r="F74" t="s">
-        <v>438</v>
-      </c>
       <c r="G74" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3381,13 +3522,13 @@
         <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>490</v>
       </c>
       <c r="G75" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3404,13 +3545,10 @@
         <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="G76" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3427,10 +3565,10 @@
         <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G77" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3447,10 +3585,13 @@
         <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>306</v>
+      </c>
+      <c r="F78" t="s">
+        <v>175</v>
       </c>
       <c r="G78" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3467,10 +3608,10 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G79" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3487,13 +3628,13 @@
         <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
         <v>162</v>
       </c>
       <c r="G80" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3510,13 +3651,13 @@
         <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="G81" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3533,13 +3674,10 @@
         <v>194</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
-      </c>
-      <c r="F82" t="s">
-        <v>442</v>
+        <v>310</v>
       </c>
       <c r="G82" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3556,13 +3694,10 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
-      </c>
-      <c r="F83" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="G83" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3579,13 +3714,10 @@
         <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
-      </c>
-      <c r="F84" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="G84" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3602,13 +3734,13 @@
         <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="G85" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3625,13 +3757,10 @@
         <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="G86" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3648,13 +3777,10 @@
         <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="G87" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3671,13 +3797,13 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G88" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3694,13 +3820,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
-      </c>
-      <c r="F89" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="G89" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3717,13 +3840,10 @@
         <v>175</v>
       </c>
       <c r="E90" t="s">
-        <v>312</v>
-      </c>
-      <c r="F90" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="G90" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3740,13 +3860,13 @@
         <v>207</v>
       </c>
       <c r="E91" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="F91" t="s">
-        <v>207</v>
+        <v>494</v>
       </c>
       <c r="G91" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3763,13 +3883,13 @@
         <v>174</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G92" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3786,13 +3906,13 @@
         <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="G93" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3809,13 +3929,13 @@
         <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="F94" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="G94" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3832,13 +3952,10 @@
         <v>180</v>
       </c>
       <c r="E95" t="s">
-        <v>313</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="G95" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3855,13 +3972,10 @@
         <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>314</v>
-      </c>
-      <c r="F96" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="G96" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3878,13 +3992,10 @@
         <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>315</v>
-      </c>
-      <c r="F97" t="s">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3901,13 +4012,13 @@
         <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G98" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3924,13 +4035,13 @@
         <v>195</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="F99" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G99" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3947,13 +4058,10 @@
         <v>187</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
-      </c>
-      <c r="F100" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="G100" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3970,13 +4078,10 @@
         <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
-      </c>
-      <c r="F101" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="G101" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3993,13 +4098,10 @@
         <v>211</v>
       </c>
       <c r="E102" t="s">
-        <v>318</v>
-      </c>
-      <c r="F102" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="G102" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4016,13 +4118,10 @@
         <v>212</v>
       </c>
       <c r="E103" t="s">
-        <v>319</v>
-      </c>
-      <c r="F103" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="G103" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4039,13 +4138,13 @@
         <v>159</v>
       </c>
       <c r="E104" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="F104" t="s">
-        <v>225</v>
+        <v>496</v>
       </c>
       <c r="G104" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4062,13 +4161,10 @@
         <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>320</v>
-      </c>
-      <c r="F105" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="G105" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4085,13 +4181,10 @@
         <v>161</v>
       </c>
       <c r="E106" t="s">
-        <v>321</v>
-      </c>
-      <c r="F106" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="G106" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4108,13 +4201,13 @@
         <v>177</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="F107" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G107" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4131,10 +4224,13 @@
         <v>214</v>
       </c>
       <c r="E108" t="s">
-        <v>299</v>
+        <v>336</v>
+      </c>
+      <c r="F108" t="s">
+        <v>202</v>
       </c>
       <c r="G108" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4151,13 +4247,13 @@
         <v>215</v>
       </c>
       <c r="E109" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F109" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G109" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4173,8 +4269,11 @@
       <c r="E110" t="s">
         <v>264</v>
       </c>
+      <c r="F110" t="s">
+        <v>186</v>
+      </c>
       <c r="G110" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4191,13 +4290,13 @@
         <v>156</v>
       </c>
       <c r="E111" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="F111" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G111" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4214,13 +4313,13 @@
         <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="F112" t="s">
         <v>157</v>
       </c>
       <c r="G112" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4237,13 +4336,13 @@
         <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F113" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G113" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4260,10 +4359,10 @@
         <v>159</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="G114" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4280,10 +4379,10 @@
         <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G115" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4300,10 +4399,10 @@
         <v>160</v>
       </c>
       <c r="E116" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G116" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4320,13 +4419,13 @@
         <v>161</v>
       </c>
       <c r="E117" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F117" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G117" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4343,13 +4442,13 @@
         <v>162</v>
       </c>
       <c r="E118" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F118" t="s">
         <v>162</v>
       </c>
       <c r="G118" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4366,13 +4465,13 @@
         <v>195</v>
       </c>
       <c r="E119" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F119" t="s">
         <v>195</v>
       </c>
       <c r="G119" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4389,10 +4488,13 @@
         <v>216</v>
       </c>
       <c r="E120" t="s">
-        <v>331</v>
+        <v>347</v>
+      </c>
+      <c r="F120" t="s">
+        <v>194</v>
       </c>
       <c r="G120" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4409,13 +4511,13 @@
         <v>196</v>
       </c>
       <c r="E121" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F121" t="s">
         <v>196</v>
       </c>
       <c r="G121" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4432,13 +4534,13 @@
         <v>163</v>
       </c>
       <c r="E122" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F122" t="s">
         <v>163</v>
       </c>
       <c r="G122" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4455,13 +4557,13 @@
         <v>172</v>
       </c>
       <c r="E123" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F123" t="s">
         <v>172</v>
       </c>
       <c r="G123" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4478,13 +4580,13 @@
         <v>204</v>
       </c>
       <c r="E124" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F124" t="s">
         <v>204</v>
       </c>
       <c r="G124" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4501,13 +4603,13 @@
         <v>168</v>
       </c>
       <c r="E125" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F125" t="s">
         <v>168</v>
       </c>
       <c r="G125" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4524,13 +4626,13 @@
         <v>217</v>
       </c>
       <c r="E126" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G126" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4547,13 +4649,13 @@
         <v>206</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F127" t="s">
         <v>221</v>
       </c>
       <c r="G127" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4570,13 +4672,13 @@
         <v>175</v>
       </c>
       <c r="E128" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F128" t="s">
         <v>175</v>
       </c>
       <c r="G128" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4593,13 +4695,13 @@
         <v>207</v>
       </c>
       <c r="E129" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
         <v>207</v>
       </c>
       <c r="G129" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4616,13 +4718,13 @@
         <v>174</v>
       </c>
       <c r="E130" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F130" t="s">
         <v>174</v>
       </c>
       <c r="G130" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4639,13 +4741,13 @@
         <v>208</v>
       </c>
       <c r="E131" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F131" t="s">
         <v>208</v>
       </c>
       <c r="G131" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4662,13 +4764,13 @@
         <v>209</v>
       </c>
       <c r="E132" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F132" t="s">
         <v>209</v>
       </c>
       <c r="G132" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4685,13 +4787,13 @@
         <v>180</v>
       </c>
       <c r="E133" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F133" t="s">
         <v>180</v>
       </c>
       <c r="G133" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4708,13 +4810,13 @@
         <v>210</v>
       </c>
       <c r="E134" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F134" t="s">
         <v>210</v>
       </c>
       <c r="G134" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4731,13 +4833,13 @@
         <v>207</v>
       </c>
       <c r="E135" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F135" t="s">
         <v>207</v>
       </c>
       <c r="G135" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4754,13 +4856,13 @@
         <v>175</v>
       </c>
       <c r="E136" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F136" t="s">
         <v>175</v>
       </c>
       <c r="G136" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4777,13 +4879,13 @@
         <v>195</v>
       </c>
       <c r="E137" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F137" t="s">
         <v>195</v>
       </c>
       <c r="G137" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4800,13 +4902,13 @@
         <v>187</v>
       </c>
       <c r="E138" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="F138" t="s">
         <v>187</v>
       </c>
       <c r="G138" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4823,13 +4925,13 @@
         <v>179</v>
       </c>
       <c r="E139" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F139" t="s">
         <v>179</v>
       </c>
       <c r="G139" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4846,13 +4948,13 @@
         <v>211</v>
       </c>
       <c r="E140" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F140" t="s">
         <v>211</v>
       </c>
       <c r="G140" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4869,13 +4971,13 @@
         <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F141" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
       <c r="G141" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4892,13 +4994,13 @@
         <v>159</v>
       </c>
       <c r="E142" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F142" t="s">
         <v>225</v>
       </c>
       <c r="G142" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4915,13 +5017,13 @@
         <v>213</v>
       </c>
       <c r="E143" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F143" t="s">
         <v>213</v>
       </c>
       <c r="G143" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4938,13 +5040,13 @@
         <v>161</v>
       </c>
       <c r="E144" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="F144" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G144" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4961,13 +5063,13 @@
         <v>193</v>
       </c>
       <c r="E145" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F145" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G145" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4984,13 +5086,10 @@
         <v>218</v>
       </c>
       <c r="E146" t="s">
-        <v>357</v>
-      </c>
-      <c r="F146" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
       <c r="G146" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5007,13 +5106,10 @@
         <v>215</v>
       </c>
       <c r="E147" t="s">
-        <v>358</v>
-      </c>
-      <c r="F147" t="s">
-        <v>215</v>
+        <v>374</v>
       </c>
       <c r="G147" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5030,13 +5126,13 @@
         <v>219</v>
       </c>
       <c r="E148" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F148" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G148" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5052,8 +5148,11 @@
       <c r="E149" t="s">
         <v>264</v>
       </c>
+      <c r="F149" t="s">
+        <v>186</v>
+      </c>
       <c r="G149" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5070,10 +5169,13 @@
         <v>156</v>
       </c>
       <c r="E150" t="s">
-        <v>360</v>
+        <v>376</v>
+      </c>
+      <c r="F150" t="s">
+        <v>490</v>
       </c>
       <c r="G150" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5090,13 +5192,13 @@
         <v>157</v>
       </c>
       <c r="E151" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F151" t="s">
-        <v>438</v>
+        <v>157</v>
       </c>
       <c r="G151" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5113,10 +5215,13 @@
         <v>158</v>
       </c>
       <c r="E152" t="s">
-        <v>362</v>
+        <v>378</v>
+      </c>
+      <c r="F152" t="s">
+        <v>491</v>
       </c>
       <c r="G152" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5133,10 +5238,10 @@
         <v>159</v>
       </c>
       <c r="E153" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="G153" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5153,13 +5258,10 @@
         <v>156</v>
       </c>
       <c r="E154" t="s">
-        <v>364</v>
-      </c>
-      <c r="F154" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="G154" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5176,10 +5278,10 @@
         <v>160</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="G155" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5196,13 +5298,13 @@
         <v>161</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F156" t="s">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="G156" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5219,13 +5321,13 @@
         <v>162</v>
       </c>
       <c r="E157" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F157" t="s">
         <v>162</v>
       </c>
       <c r="G157" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5242,13 +5344,13 @@
         <v>195</v>
       </c>
       <c r="E158" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="F158" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G158" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5265,10 +5367,13 @@
         <v>189</v>
       </c>
       <c r="E159" t="s">
-        <v>369</v>
+        <v>385</v>
+      </c>
+      <c r="F159" t="s">
+        <v>498</v>
       </c>
       <c r="G159" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5285,10 +5390,13 @@
         <v>196</v>
       </c>
       <c r="E160" t="s">
-        <v>370</v>
+        <v>386</v>
+      </c>
+      <c r="F160" t="s">
+        <v>196</v>
       </c>
       <c r="G160" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5305,13 +5413,13 @@
         <v>172</v>
       </c>
       <c r="E161" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F161" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G161" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5328,10 +5436,13 @@
         <v>204</v>
       </c>
       <c r="E162" t="s">
-        <v>372</v>
+        <v>388</v>
+      </c>
+      <c r="F162" t="s">
+        <v>204</v>
       </c>
       <c r="G162" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5348,10 +5459,13 @@
         <v>168</v>
       </c>
       <c r="E163" t="s">
-        <v>373</v>
+        <v>389</v>
+      </c>
+      <c r="F163" t="s">
+        <v>168</v>
       </c>
       <c r="G163" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5368,13 +5482,13 @@
         <v>220</v>
       </c>
       <c r="E164" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F164" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G164" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5391,10 +5505,13 @@
         <v>221</v>
       </c>
       <c r="E165" t="s">
-        <v>375</v>
+        <v>391</v>
+      </c>
+      <c r="F165" t="s">
+        <v>221</v>
       </c>
       <c r="G165" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5411,10 +5528,13 @@
         <v>175</v>
       </c>
       <c r="E166" t="s">
-        <v>376</v>
+        <v>392</v>
+      </c>
+      <c r="F166" t="s">
+        <v>175</v>
       </c>
       <c r="G166" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5431,13 +5551,13 @@
         <v>207</v>
       </c>
       <c r="E167" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F167" t="s">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="G167" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5454,13 +5574,13 @@
         <v>174</v>
       </c>
       <c r="E168" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F168" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G168" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5477,13 +5597,13 @@
         <v>208</v>
       </c>
       <c r="E169" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F169" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G169" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5500,13 +5620,13 @@
         <v>209</v>
       </c>
       <c r="E170" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F170" t="s">
-        <v>446</v>
+        <v>209</v>
       </c>
       <c r="G170" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5523,10 +5643,13 @@
         <v>180</v>
       </c>
       <c r="E171" t="s">
-        <v>381</v>
+        <v>397</v>
+      </c>
+      <c r="F171" t="s">
+        <v>180</v>
       </c>
       <c r="G171" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5543,10 +5666,13 @@
         <v>210</v>
       </c>
       <c r="E172" t="s">
-        <v>382</v>
+        <v>398</v>
+      </c>
+      <c r="F172" t="s">
+        <v>210</v>
       </c>
       <c r="G172" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5563,10 +5689,13 @@
         <v>207</v>
       </c>
       <c r="E173" t="s">
-        <v>383</v>
+        <v>399</v>
+      </c>
+      <c r="F173" t="s">
+        <v>207</v>
       </c>
       <c r="G173" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5583,13 +5712,13 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G174" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5606,13 +5735,13 @@
         <v>195</v>
       </c>
       <c r="E175" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G175" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5629,10 +5758,13 @@
         <v>187</v>
       </c>
       <c r="E176" t="s">
-        <v>386</v>
+        <v>402</v>
+      </c>
+      <c r="F176" t="s">
+        <v>187</v>
       </c>
       <c r="G176" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5649,10 +5781,13 @@
         <v>179</v>
       </c>
       <c r="E177" t="s">
-        <v>387</v>
+        <v>403</v>
+      </c>
+      <c r="F177" t="s">
+        <v>179</v>
       </c>
       <c r="G177" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5669,10 +5804,13 @@
         <v>211</v>
       </c>
       <c r="E178" t="s">
-        <v>388</v>
+        <v>404</v>
+      </c>
+      <c r="F178" t="s">
+        <v>211</v>
       </c>
       <c r="G178" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5689,10 +5827,13 @@
         <v>212</v>
       </c>
       <c r="E179" t="s">
-        <v>389</v>
+        <v>405</v>
+      </c>
+      <c r="F179" t="s">
+        <v>497</v>
       </c>
       <c r="G179" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5709,13 +5850,13 @@
         <v>159</v>
       </c>
       <c r="E180" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F180" t="s">
-        <v>447</v>
+        <v>225</v>
       </c>
       <c r="G180" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5732,10 +5873,13 @@
         <v>213</v>
       </c>
       <c r="E181" t="s">
-        <v>391</v>
+        <v>407</v>
+      </c>
+      <c r="F181" t="s">
+        <v>213</v>
       </c>
       <c r="G181" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5752,10 +5896,13 @@
         <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>392</v>
+        <v>408</v>
+      </c>
+      <c r="F182" t="s">
+        <v>493</v>
       </c>
       <c r="G182" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5772,13 +5919,13 @@
         <v>192</v>
       </c>
       <c r="E183" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G183" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5795,13 +5942,10 @@
         <v>222</v>
       </c>
       <c r="E184" t="s">
-        <v>394</v>
-      </c>
-      <c r="F184" t="s">
-        <v>201</v>
+        <v>410</v>
       </c>
       <c r="G184" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5818,10 +5962,13 @@
         <v>218</v>
       </c>
       <c r="E185" t="s">
-        <v>395</v>
+        <v>411</v>
+      </c>
+      <c r="F185" t="s">
+        <v>218</v>
       </c>
       <c r="G185" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5838,10 +5985,13 @@
         <v>215</v>
       </c>
       <c r="E186" t="s">
-        <v>396</v>
+        <v>412</v>
+      </c>
+      <c r="F186" t="s">
+        <v>215</v>
       </c>
       <c r="G186" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5858,13 +6008,13 @@
         <v>219</v>
       </c>
       <c r="E187" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F187" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G187" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5880,8 +6030,11 @@
       <c r="E188" t="s">
         <v>264</v>
       </c>
+      <c r="F188" t="s">
+        <v>186</v>
+      </c>
       <c r="G188" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5898,13 +6051,13 @@
         <v>156</v>
       </c>
       <c r="E189" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F189" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G189" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5921,13 +6074,13 @@
         <v>157</v>
       </c>
       <c r="E190" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F190" t="s">
         <v>157</v>
       </c>
       <c r="G190" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5944,13 +6097,13 @@
         <v>158</v>
       </c>
       <c r="E191" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F191" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G191" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5967,10 +6120,10 @@
         <v>159</v>
       </c>
       <c r="E192" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G192" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5987,10 +6140,10 @@
         <v>156</v>
       </c>
       <c r="E193" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="G193" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6007,10 +6160,10 @@
         <v>160</v>
       </c>
       <c r="E194" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="G194" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6027,13 +6180,13 @@
         <v>161</v>
       </c>
       <c r="E195" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F195" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G195" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6050,13 +6203,13 @@
         <v>162</v>
       </c>
       <c r="E196" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F196" t="s">
         <v>162</v>
       </c>
       <c r="G196" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6073,13 +6226,13 @@
         <v>195</v>
       </c>
       <c r="E197" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F197" t="s">
         <v>195</v>
       </c>
       <c r="G197" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6096,13 +6249,13 @@
         <v>223</v>
       </c>
       <c r="E198" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="F198" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="G198" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6119,13 +6272,13 @@
         <v>196</v>
       </c>
       <c r="E199" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F199" t="s">
         <v>196</v>
       </c>
       <c r="G199" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6142,13 +6295,13 @@
         <v>172</v>
       </c>
       <c r="E200" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="F200" t="s">
         <v>172</v>
       </c>
       <c r="G200" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6165,13 +6318,13 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="F201" t="s">
         <v>204</v>
       </c>
       <c r="G201" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6188,13 +6341,13 @@
         <v>168</v>
       </c>
       <c r="E202" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="F202" t="s">
         <v>168</v>
       </c>
       <c r="G202" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6211,13 +6364,13 @@
         <v>224</v>
       </c>
       <c r="E203" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="F203" t="s">
         <v>220</v>
       </c>
       <c r="G203" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6234,10 +6387,10 @@
         <v>206</v>
       </c>
       <c r="E204" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G204" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6254,10 +6407,10 @@
         <v>175</v>
       </c>
       <c r="E205" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G205" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6274,10 +6427,10 @@
         <v>171</v>
       </c>
       <c r="E206" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="G206" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6294,13 +6447,13 @@
         <v>207</v>
       </c>
       <c r="E207" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="F207" t="s">
         <v>207</v>
       </c>
       <c r="G207" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6317,13 +6470,13 @@
         <v>174</v>
       </c>
       <c r="E208" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="F208" t="s">
         <v>174</v>
       </c>
       <c r="G208" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6340,13 +6493,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="F209" t="s">
         <v>208</v>
       </c>
       <c r="G209" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6363,13 +6516,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F210" t="s">
         <v>209</v>
       </c>
       <c r="G210" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6386,13 +6539,13 @@
         <v>180</v>
       </c>
       <c r="E211" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="F211" t="s">
         <v>180</v>
       </c>
       <c r="G211" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6409,13 +6562,13 @@
         <v>210</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="F212" t="s">
         <v>210</v>
       </c>
       <c r="G212" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6432,13 +6585,13 @@
         <v>207</v>
       </c>
       <c r="E213" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="F213" t="s">
         <v>207</v>
       </c>
       <c r="G213" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6455,13 +6608,13 @@
         <v>175</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="F214" t="s">
         <v>175</v>
       </c>
       <c r="G214" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6478,13 +6631,13 @@
         <v>195</v>
       </c>
       <c r="E215" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="F215" t="s">
         <v>195</v>
       </c>
       <c r="G215" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6501,13 +6654,13 @@
         <v>187</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F216" t="s">
         <v>187</v>
       </c>
       <c r="G216" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6524,13 +6677,13 @@
         <v>179</v>
       </c>
       <c r="E217" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F217" t="s">
         <v>179</v>
       </c>
       <c r="G217" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6547,13 +6700,13 @@
         <v>211</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F218" t="s">
         <v>211</v>
       </c>
       <c r="G218" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6570,13 +6723,13 @@
         <v>212</v>
       </c>
       <c r="E219" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="F219" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="G219" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6593,13 +6746,13 @@
         <v>225</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="F220" t="s">
         <v>225</v>
       </c>
       <c r="G220" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6616,13 +6769,13 @@
         <v>213</v>
       </c>
       <c r="E221" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="F221" t="s">
         <v>213</v>
       </c>
       <c r="G221" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6639,13 +6792,13 @@
         <v>161</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G222" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6662,13 +6815,13 @@
         <v>197</v>
       </c>
       <c r="E223" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="F223" t="s">
         <v>192</v>
       </c>
       <c r="G223" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6685,13 +6838,13 @@
         <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F224" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G224" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6708,13 +6861,13 @@
         <v>218</v>
       </c>
       <c r="E225" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F225" t="s">
         <v>218</v>
       </c>
       <c r="G225" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6731,13 +6884,13 @@
         <v>215</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="F226" t="s">
         <v>215</v>
       </c>
       <c r="G226" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6754,13 +6907,13 @@
         <v>219</v>
       </c>
       <c r="E227" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="F227" t="s">
         <v>211</v>
       </c>
       <c r="G227" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6776,8 +6929,11 @@
       <c r="E228" t="s">
         <v>264</v>
       </c>
+      <c r="F228" t="s">
+        <v>186</v>
+      </c>
       <c r="G228" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6794,13 +6950,13 @@
         <v>156</v>
       </c>
       <c r="E229" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G229" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6817,13 +6973,13 @@
         <v>157</v>
       </c>
       <c r="E230" t="s">
-        <v>323</v>
+        <v>454</v>
       </c>
       <c r="F230" t="s">
         <v>157</v>
       </c>
       <c r="G230" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6840,13 +6996,13 @@
         <v>175</v>
       </c>
       <c r="E231" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="F231" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G231" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6863,10 +7019,10 @@
         <v>225</v>
       </c>
       <c r="E232" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="G232" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6883,10 +7039,10 @@
         <v>156</v>
       </c>
       <c r="E233" t="s">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="G233" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6903,10 +7059,10 @@
         <v>227</v>
       </c>
       <c r="E234" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="G234" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6923,13 +7079,13 @@
         <v>161</v>
       </c>
       <c r="E235" t="s">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G235" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6946,13 +7102,13 @@
         <v>162</v>
       </c>
       <c r="E236" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
         <v>162</v>
       </c>
       <c r="G236" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6969,13 +7125,13 @@
         <v>195</v>
       </c>
       <c r="E237" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
         <v>195</v>
       </c>
       <c r="G237" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6992,13 +7148,13 @@
         <v>196</v>
       </c>
       <c r="E238" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="F238" t="s">
         <v>196</v>
       </c>
       <c r="G238" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7015,13 +7171,13 @@
         <v>172</v>
       </c>
       <c r="E239" t="s">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
         <v>172</v>
       </c>
       <c r="G239" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7038,13 +7194,13 @@
         <v>204</v>
       </c>
       <c r="E240" t="s">
-        <v>335</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
         <v>204</v>
       </c>
       <c r="G240" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7061,13 +7217,13 @@
         <v>168</v>
       </c>
       <c r="E241" t="s">
-        <v>336</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
         <v>168</v>
       </c>
       <c r="G241" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7084,13 +7240,13 @@
         <v>228</v>
       </c>
       <c r="E242" t="s">
-        <v>337</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>228</v>
+        <v>501</v>
       </c>
       <c r="G242" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7107,13 +7263,10 @@
         <v>206</v>
       </c>
       <c r="E243" t="s">
-        <v>338</v>
-      </c>
-      <c r="F243" t="s">
-        <v>221</v>
+        <v>467</v>
       </c>
       <c r="G243" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7130,13 +7283,10 @@
         <v>175</v>
       </c>
       <c r="E244" t="s">
-        <v>339</v>
-      </c>
-      <c r="F244" t="s">
-        <v>175</v>
+        <v>468</v>
       </c>
       <c r="G244" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7153,13 +7303,13 @@
         <v>207</v>
       </c>
       <c r="E245" t="s">
-        <v>340</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
         <v>207</v>
       </c>
       <c r="G245" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7176,13 +7326,13 @@
         <v>174</v>
       </c>
       <c r="E246" t="s">
-        <v>341</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
         <v>174</v>
       </c>
       <c r="G246" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7199,13 +7349,13 @@
         <v>208</v>
       </c>
       <c r="E247" t="s">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
         <v>208</v>
       </c>
       <c r="G247" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7222,13 +7372,13 @@
         <v>209</v>
       </c>
       <c r="E248" t="s">
-        <v>343</v>
+        <v>472</v>
       </c>
       <c r="F248" t="s">
         <v>209</v>
       </c>
       <c r="G248" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7245,13 +7395,13 @@
         <v>180</v>
       </c>
       <c r="E249" t="s">
-        <v>344</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
         <v>180</v>
       </c>
       <c r="G249" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7268,13 +7418,13 @@
         <v>210</v>
       </c>
       <c r="E250" t="s">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
         <v>210</v>
       </c>
       <c r="G250" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7291,13 +7441,13 @@
         <v>207</v>
       </c>
       <c r="E251" t="s">
-        <v>346</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
         <v>207</v>
       </c>
       <c r="G251" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7314,13 +7464,13 @@
         <v>175</v>
       </c>
       <c r="E252" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="F252" t="s">
         <v>175</v>
       </c>
       <c r="G252" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7337,13 +7487,13 @@
         <v>195</v>
       </c>
       <c r="E253" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
         <v>195</v>
       </c>
       <c r="G253" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7360,13 +7510,13 @@
         <v>187</v>
       </c>
       <c r="E254" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="F254" t="s">
         <v>187</v>
       </c>
       <c r="G254" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7383,13 +7533,13 @@
         <v>179</v>
       </c>
       <c r="E255" t="s">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="F255" t="s">
         <v>179</v>
       </c>
       <c r="G255" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7406,13 +7556,13 @@
         <v>229</v>
       </c>
       <c r="E256" t="s">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
         <v>211</v>
       </c>
       <c r="G256" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7429,13 +7579,13 @@
         <v>212</v>
       </c>
       <c r="E257" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
       <c r="G257" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7452,13 +7602,13 @@
         <v>159</v>
       </c>
       <c r="E258" t="s">
-        <v>353</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
         <v>225</v>
       </c>
       <c r="G258" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7475,13 +7625,13 @@
         <v>213</v>
       </c>
       <c r="E259" t="s">
-        <v>354</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
         <v>213</v>
       </c>
       <c r="G259" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7498,13 +7648,13 @@
         <v>161</v>
       </c>
       <c r="E260" t="s">
-        <v>355</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G260" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7521,13 +7671,13 @@
         <v>190</v>
       </c>
       <c r="E261" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="F261" t="s">
-        <v>190</v>
+        <v>496</v>
       </c>
       <c r="G261" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7544,13 +7694,13 @@
         <v>230</v>
       </c>
       <c r="E262" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="F262" t="s">
-        <v>449</v>
+        <v>226</v>
       </c>
       <c r="G262" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7567,13 +7717,13 @@
         <v>218</v>
       </c>
       <c r="E263" t="s">
-        <v>357</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
         <v>218</v>
       </c>
       <c r="G263" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7590,13 +7740,13 @@
         <v>215</v>
       </c>
       <c r="E264" t="s">
-        <v>358</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
         <v>215</v>
       </c>
       <c r="G264" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7613,13 +7763,13 @@
         <v>219</v>
       </c>
       <c r="E265" t="s">
-        <v>359</v>
+        <v>489</v>
       </c>
       <c r="F265" t="s">
         <v>211</v>
       </c>
       <c r="G265" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7640,31 +7790,31 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
